--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2959525.210633714</v>
+        <v>2956981.423888257</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651809</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.2762171674043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>258.6025264431504</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.3828147651809</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.0030437372708</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.190584626427</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>202.5817365607043</v>
       </c>
     </row>
     <row r="4">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482565</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>259.2505607854025</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.8620521772292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,7 +947,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>208.2085323732918</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>88.35976818624509</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.10242376158297</v>
+        <v>65.77030295285017</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>359.0484864714745</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>220.892030512648</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>118.9138220169979</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.1854048069372</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>143.9002723490403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.85912858529866</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>178.513465597807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>132.6315337216692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696276</v>
+        <v>42.71572132711243</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>1.632620083626864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>187.9696168279544</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>80.5697888787481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>109.090968037234</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>17.95257707283392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>34.69211367164815</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.4447645856105</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="C2" t="n">
-        <v>521.4447645856105</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="D2" t="n">
-        <v>255.4015173480541</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683759</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763411</v>
+        <v>411.766216649038</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121447</v>
+        <v>398.8012466126183</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121447</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467334</v>
+        <v>49.15993901467414</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935564</v>
+        <v>141.9970572935576</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959977</v>
+        <v>294.0714735959996</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795986</v>
+        <v>494.9530007796011</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670339</v>
+        <v>703.698809467037</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288962</v>
+        <v>887.4762960288999</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108069</v>
+        <v>1009.825128108073</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060723</v>
+        <v>899.1940867193447</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060723</v>
+        <v>684.7549646357988</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060723</v>
+        <v>684.7549646357988</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060723</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060723</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="X2" t="n">
-        <v>787.488011823167</v>
+        <v>418.7117173982414</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.4447645856105</v>
+        <v>418.7117173982414</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.5217446662905</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="C3" t="n">
-        <v>276.0687153851635</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="D3" t="n">
-        <v>127.1343057239122</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="E3" t="n">
-        <v>127.1343057239122</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="F3" t="n">
-        <v>127.1343057239122</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371063</v>
+        <v>95.65665001371102</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433175</v>
+        <v>242.2693060433184</v>
       </c>
       <c r="M3" t="n">
-        <v>432.716228529904</v>
+        <v>432.7162285299053</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779534</v>
+        <v>647.5873146573273</v>
       </c>
       <c r="O3" t="n">
-        <v>903.3613458954824</v>
+        <v>908.3363012748573</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062222</v>
+        <v>1025.278016062226</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155242</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712124</v>
+        <v>904.883459476698</v>
       </c>
       <c r="T3" t="n">
-        <v>886.5091315712124</v>
+        <v>708.0718853367894</v>
       </c>
       <c r="U3" t="n">
-        <v>658.3732448718233</v>
+        <v>479.9359986374003</v>
       </c>
       <c r="V3" t="n">
-        <v>658.3732448718233</v>
+        <v>479.9359986374003</v>
       </c>
       <c r="W3" t="n">
-        <v>658.3732448718233</v>
+        <v>225.6986419091987</v>
       </c>
       <c r="X3" t="n">
-        <v>450.5217446662905</v>
+        <v>225.6986419091987</v>
       </c>
       <c r="Y3" t="n">
-        <v>450.5217446662905</v>
+        <v>21.07062518121455</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.814743010123</v>
+        <v>190.0068081091215</v>
       </c>
       <c r="C4" t="n">
-        <v>352.814743010123</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="D4" t="n">
-        <v>352.814743010123</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="E4" t="n">
-        <v>204.9016494277299</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="F4" t="n">
-        <v>204.9016494277299</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="G4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="K4" t="n">
-        <v>126.32778054812</v>
+        <v>125.4984182940746</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964375</v>
+        <v>315.7177729964402</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030347</v>
+        <v>526.6665349030377</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670123</v>
+        <v>738.0340231670156</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836319</v>
+        <v>917.2498138836354</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097374</v>
+        <v>1047.079201097378</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>924.7153898972058</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060723</v>
+        <v>717.9193086652672</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060723</v>
+        <v>717.9193086652672</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060723</v>
+        <v>451.8760614277098</v>
       </c>
       <c r="V4" t="n">
-        <v>798.8467708548366</v>
+        <v>451.8760614277098</v>
       </c>
       <c r="W4" t="n">
-        <v>798.8467708548366</v>
+        <v>190.0068081091215</v>
       </c>
       <c r="X4" t="n">
-        <v>570.8572199568192</v>
+        <v>190.0068081091215</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.814743010123</v>
+        <v>190.0068081091215</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
         <v>157.4777567984221</v>
@@ -4595,22 +4595,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>634.167062227511</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>634.167062227511</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698.3677214043314</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>698.3677214043314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>609.1154303071141</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4653,13 +4653,13 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4674,22 +4674,22 @@
         <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>906.2192216098642</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>906.2192216098642</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>906.2192216098642</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>698.3677214043314</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>698.3677214043314</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>475.5321020619889</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>306.595919134082</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1008.287415196345</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>1008.287415196345</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>1008.287415196345</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>741.9097586291668</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>741.9097586291668</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>475.5321020619889</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>475.5321020619889</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>475.5321020619889</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2051.040280862504</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>2437.640120926626</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>483.0441129489469</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614.1395525925794</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>445.2033696646726</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361096</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>834.9321317361096</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>614.1395525925794</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,40 +5267,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
         <v>1231.938859683104</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>417.9651836029417</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358621</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967227</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>551.263652184387</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1082.889218672183</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6728,7 +6728,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,16 +6968,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7239,22 +7239,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
         <v>680.0291294438176</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,7 +7445,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7685,7 +7685,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877291</v>
+        <v>60.59164343877268</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079437</v>
+        <v>2.109135423079252</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.025207453911122</v>
       </c>
       <c r="O3" t="n">
-        <v>91.87356436301292</v>
+        <v>91.87356436301343</v>
       </c>
       <c r="P3" t="n">
-        <v>5.025207453910738</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941014</v>
       </c>
       <c r="L4" t="n">
-        <v>161.6369618910012</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.9162744517248</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.533690297528835</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>73.62417772602097</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516651</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>98.55338150863662</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>39.52450498097836</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>128.4813855737353</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755922.706248879</v>
+        <v>755922.7062488791</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738020.8750562394</v>
+        <v>738020.8750562395</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738020.8750562395</v>
+        <v>738020.8750562394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
@@ -26338,22 +26338,22 @@
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.609736506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909298</v>
+        <v>679702.4124909311</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680936262</v>
+        <v>366.4703680924816</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.483644986176935e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642099</v>
+        <v>68912.53318642129</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774254073</v>
+        <v>85.20559774231444</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674027</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26427,37 +26427,37 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181809</v>
       </c>
-      <c r="G4" t="n">
-        <v>12386.92018181818</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181811</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="O4" t="n">
         <v>12386.92018181815</v>
       </c>
-      <c r="J4" t="n">
-        <v>12386.92018181808</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181815</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181821</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12386.92018181814</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557692</v>
+        <v>63021.461645577</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297954.9175192689</v>
+        <v>-297954.9175192698</v>
       </c>
       <c r="C6" t="n">
-        <v>381454.4659049458</v>
+        <v>381454.465904947</v>
       </c>
       <c r="D6" t="n">
-        <v>71072.41087115323</v>
+        <v>71072.41087115296</v>
       </c>
       <c r="E6" t="n">
-        <v>65079.71810623464</v>
+        <v>65044.98018079888</v>
       </c>
       <c r="F6" t="n">
-        <v>572565.1597307804</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="G6" t="n">
-        <v>572565.1597307808</v>
+        <v>572530.4218053451</v>
       </c>
       <c r="H6" t="n">
-        <v>572565.1597307804</v>
+        <v>572530.421805345</v>
       </c>
       <c r="I6" t="n">
-        <v>572565.1597307804</v>
+        <v>572530.4218053445</v>
       </c>
       <c r="J6" t="n">
-        <v>503652.6265443595</v>
+        <v>503617.8886189236</v>
       </c>
       <c r="K6" t="n">
-        <v>572479.9541330379</v>
+        <v>572445.2162076026</v>
       </c>
       <c r="L6" t="n">
-        <v>477182.5135932109</v>
+        <v>477147.7756677752</v>
       </c>
       <c r="M6" t="n">
-        <v>439957.8660018539</v>
+        <v>439923.1280764182</v>
       </c>
       <c r="N6" t="n">
-        <v>572565.1597307805</v>
+        <v>572530.4218053449</v>
       </c>
       <c r="O6" t="n">
-        <v>572565.1597307809</v>
+        <v>572530.4218053446</v>
       </c>
       <c r="P6" t="n">
-        <v>572565.1597307808</v>
+        <v>572530.4218053451</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960525</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26799,13 +26799,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.920235783504001e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>-3.218023548783847e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734266602</v>
+        <v>0.2849904734257507</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363252871</v>
+        <v>0.3310652363243078</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.382814765182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252871</v>
+        <v>0.3310652363243078</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27045,7 +27045,7 @@
         <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252871</v>
+        <v>0.3310652363243078</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.3002268555021</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6541529048575</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>55.6028394873677</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495308</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3482859132882</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908727</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>31.02028884752949</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280754</v>
+        <v>43.94290942807533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642688</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>3.100959216600103</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.87584376934552</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>27.27243755118855</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.722601174865588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.0294062827618</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>59.08529737839366</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>81.40217912208097</v>
+        <v>61.73429993081376</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.224405299533032</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>106.8602279574869</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>29.70165100121444</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.3375935296538</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.702563295801275e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,19 +30220,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.26943618524902</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646647</v>
+        <v>95.12510079646661</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933473</v>
+        <v>313.8647179933477</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876047</v>
+        <v>389.3769364876053</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460616</v>
+        <v>433.2568667460622</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061215</v>
+        <v>440.2674158061222</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316487</v>
+        <v>415.7320362316493</v>
       </c>
       <c r="P2" t="n">
-        <v>354.817674623121</v>
+        <v>354.8176746231215</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.453296897333</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682765</v>
+        <v>56.22626896827659</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263682</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333975</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435873</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970824</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289725</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963481</v>
+        <v>334.5046626963486</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682323</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466124</v>
+        <v>314.1054948466128</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439953</v>
+        <v>252.0973516439956</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5204033774369</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621614</v>
+        <v>81.96724952621625</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.52184951564887</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311993</v>
+        <v>5.321270296312001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962998</v>
+        <v>0.0868542485796301</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058014</v>
+        <v>9.840443980058028</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923507</v>
+        <v>33.28444650923512</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841627</v>
+        <v>78.25064706841638</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823531</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187286</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148691</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770379</v>
+        <v>92.67927351770392</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528312</v>
+        <v>49.76568090528319</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735296</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477773</v>
+        <v>4.72904772047778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354612</v>
+        <v>0.06037082196354621</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,10 +31844,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>432.1946015714842</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32075,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334985</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745686</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>458.677017313216</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,16 +33740,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>194.5189324111251</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,7 +34226,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622132</v>
+        <v>28.37304427622163</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836671</v>
+        <v>93.77486694836716</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176175</v>
+        <v>153.6105215176181</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187888</v>
+        <v>202.9106335187895</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095306</v>
+        <v>210.8543522095313</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809962</v>
+        <v>185.6338248099626</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.5846788678519</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288314</v>
+        <v>44.14760702288353</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227234</v>
+        <v>75.33941902272372</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490979</v>
+        <v>148.0935919490983</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743298</v>
+        <v>192.3706287743303</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>217.0415011388101</v>
       </c>
       <c r="O3" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="P3" t="n">
-        <v>123.1481516835758</v>
+        <v>118.1229442296654</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141516</v>
+        <v>28.53862929141542</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564702</v>
+        <v>105.4826193059193</v>
       </c>
       <c r="L4" t="n">
-        <v>191.3030226750683</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814113</v>
+        <v>213.0795574814116</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979572</v>
+        <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009406</v>
+        <v>6.517230266009534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>373.1786946453895</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>285.5958035752572</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>290.0605676494659</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591395</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790191</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>120.5443928316912</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>320.835578338857</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>55.9645526312509</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
